--- a/medicine/Enfance/Jay_Bennett/Jay_Bennett.xlsx
+++ b/medicine/Enfance/Jay_Bennett/Jay_Bennett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jay Bennett, né Jay Shapiro le 24 décembre 1912 à New York et mort le 27 juin 2009 à Cherry Hill dans le New Jersey, est un écrivain américain, auteur de pièce radiophonique, de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Brooklyn dans l'Hebrew Institute of Boro Park (en), à la James Madison High School (Brooklyn) (en), puis à l'université de New York. En raison de la Grande Dépression de 1929, il interrompt ses études et erre à travers les États-Unis à la recherche de petits boulots. À son retour à New York, il se consacre à l'écriture.
 Il commence par écrire des scénarios de pièces radiophoniques. Pendant la Seconde Guerre mondiale, de 1942 à 1945, il travaille pour le United States Office of War Information. Après la guerre, il se tourne vers le théâtre et voit deux de ses pièces produites à Broadway et à Londres. Au début de la télévision, il écrit des scénarios pour les séries télévisées Monodrama Theater (en), Harlem Detective et Alfred Hitchcock présente.
-En 1959, il publie son premier roman Catacombes (Catacombs) qui est selon Claude Mesplède et Jean-Jacques Schleret « un suspense bien ficelé qui n'aurait pas déplu à Alfred Hitchcock » [1]. Ce roman est adapté en 1965 sous son titre original par Gordon Hessler. Il publie deux autres romans policiers, dont L'École des parias (Death Is a Silent Room), avant de se consacrer à la littérature pour la jeunesse. Avec Crime posthume (The Long Black Coat), paru en 1974, et Témoin en sursis (The Dangling Witness), paru en 1975, il obtient deux prix Edgar-Allan-Poe du meilleur roman pour la jeunesse[2].
+En 1959, il publie son premier roman Catacombes (Catacombs) qui est selon Claude Mesplède et Jean-Jacques Schleret « un suspense bien ficelé qui n'aurait pas déplu à Alfred Hitchcock » . Ce roman est adapté en 1965 sous son titre original par Gordon Hessler. Il publie deux autres romans policiers, dont L'École des parias (Death Is a Silent Room), avant de se consacrer à la littérature pour la jeunesse. Avec Crime posthume (The Long Black Coat), paru en 1974, et Témoin en sursis (The Dangling Witness), paru en 1975, il obtient deux prix Edgar-Allan-Poe du meilleur roman pour la jeunesse.
 </t>
         </is>
       </c>
@@ -546,14 +560,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Catacombs, 1959
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catacombs, 1959
 Catacombes, coll. « Le Cachet » no 2, Éditions de Trévise, 1960
 Murder Money, 1963
 Death Is a Silent Room, 1965
-L'École des parias, Série noire no 1118, Gallimard, 1967
-Littérature d’enfance et de jeunesse
-Deathman, Do Not Follow Me, 1968
+L'École des parias, Série noire no 1118, Gallimard, 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jay_Bennett</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jay_Bennett</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deathman, Do Not Follow Me, 1968
 The Deadly Gift, 1969
 Masks: A Love Story, 1972
 The Killing Tree, 1972
@@ -578,43 +631,113 @@
 Skinhead, 1991
 Coverup, 1991
 Death Grip, 1993
-The Hooded Man, 1993
-Nouvelles de littérature d’enfance et de jeunesse
-The Most Dishonest Thing, 1973
+The Hooded Man, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jay_Bennett</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jay_Bennett</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Most Dishonest Thing, 1973
 I Don't Understand, 1974
 A Million Dollar Caper, 1976
 The Guiccioli Miniature, 1991
-My Brother's Keeper, 1997
-Roman signé Steve Rand
-All Her Vices, 1961</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+My Brother's Keeper, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jay_Bennett</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jay_Bennett</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Roman signé Steve Rand</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>All Her Vices, 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jay_Bennett</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jay_Bennett</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1953 : 28 épisodes de la série télévisée Monodrama Theater (en)
 1953 - 1954  : série télévisée Harlem Detective
@@ -623,31 +746,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jay_Bennett</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jay_Bennett</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Claude Mesplède, Les Années Série noire vol.3 (1966-1972) Encrage « Travaux » no 22, 1994
 Claude Mesplède et Jean-Jacques Schleret, SN Voyage au bout de la Noire, Futuropolis, 1982, p. 32.</t>
